--- a/Code/Results/Cases/Case_3_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.04815376457372</v>
+        <v>13.4252224796261</v>
       </c>
       <c r="C2">
-        <v>15.58256292677325</v>
+        <v>9.38299382964138</v>
       </c>
       <c r="D2">
-        <v>3.315566151789684</v>
+        <v>3.740008472580512</v>
       </c>
       <c r="F2">
-        <v>20.18744577395059</v>
+        <v>21.38989080404852</v>
       </c>
       <c r="G2">
-        <v>27.41373946665433</v>
+        <v>24.44737171983198</v>
       </c>
       <c r="H2">
-        <v>8.64322098181259</v>
+        <v>12.70049582734677</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.90890244210691</v>
+        <v>15.88000812443902</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.5673274183005</v>
+        <v>12.77419563848321</v>
       </c>
       <c r="C3">
-        <v>14.6204574900718</v>
+        <v>8.878361777503271</v>
       </c>
       <c r="D3">
-        <v>3.249395231172981</v>
+        <v>3.718775219632284</v>
       </c>
       <c r="F3">
-        <v>19.25958900290999</v>
+        <v>21.28832621055277</v>
       </c>
       <c r="G3">
-        <v>25.89791077484754</v>
+        <v>24.1813638881743</v>
       </c>
       <c r="H3">
-        <v>8.524513368369499</v>
+        <v>12.73580959058132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.06670936205826</v>
+        <v>15.93321286040914</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.60622804022909</v>
+        <v>12.35888583854069</v>
       </c>
       <c r="C4">
-        <v>13.99809506146738</v>
+        <v>8.551748914040825</v>
       </c>
       <c r="D4">
-        <v>3.208191428417232</v>
+        <v>3.705699616513914</v>
       </c>
       <c r="F4">
-        <v>18.69581672166057</v>
+        <v>21.23491910154956</v>
       </c>
       <c r="G4">
-        <v>24.96831763652434</v>
+        <v>24.0304361432583</v>
       </c>
       <c r="H4">
-        <v>8.461774171350381</v>
+        <v>12.76104410354162</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.16749758459559</v>
+        <v>15.96786108781562</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.20144033641613</v>
+        <v>12.18594976194884</v>
       </c>
       <c r="C5">
-        <v>13.73653828582897</v>
+        <v>8.414501547623795</v>
       </c>
       <c r="D5">
-        <v>3.191270202189763</v>
+        <v>3.700364075237709</v>
       </c>
       <c r="F5">
-        <v>18.46788989479677</v>
+        <v>21.21542303914675</v>
       </c>
       <c r="G5">
-        <v>24.59032695241976</v>
+        <v>23.97213113720726</v>
       </c>
       <c r="H5">
-        <v>8.438680295531869</v>
+        <v>12.77221658185119</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.20953785643277</v>
+        <v>15.98247936321711</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.13343000063753</v>
+        <v>12.15701796004825</v>
       </c>
       <c r="C6">
-        <v>13.69262824743774</v>
+        <v>8.391463300995355</v>
       </c>
       <c r="D6">
-        <v>3.188453003263394</v>
+        <v>3.69947775503784</v>
       </c>
       <c r="F6">
-        <v>18.43016246806655</v>
+        <v>21.21232308832882</v>
       </c>
       <c r="G6">
-        <v>24.52762927477257</v>
+        <v>23.96264502736274</v>
       </c>
       <c r="H6">
-        <v>8.434992467513457</v>
+        <v>12.77412535119219</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.21657681117994</v>
+        <v>15.98493687174293</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.60082221714814</v>
+        <v>12.35656819850367</v>
       </c>
       <c r="C7">
-        <v>13.99459972889122</v>
+        <v>8.549914653067617</v>
       </c>
       <c r="D7">
-        <v>3.207963731272683</v>
+        <v>3.705627685113847</v>
       </c>
       <c r="F7">
-        <v>18.69273502264065</v>
+        <v>21.23464697061064</v>
       </c>
       <c r="G7">
-        <v>24.96321579835999</v>
+        <v>24.02963676858449</v>
       </c>
       <c r="H7">
-        <v>8.461452816851869</v>
+        <v>12.76119118446527</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.16806064689895</v>
+        <v>15.96805621403706</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.54827368722184</v>
+        <v>13.20410456575486</v>
       </c>
       <c r="C8">
-        <v>15.25739537228553</v>
+        <v>9.212512008141118</v>
       </c>
       <c r="D8">
-        <v>3.292877876707565</v>
+        <v>3.732696701174478</v>
       </c>
       <c r="F8">
-        <v>19.86647160564404</v>
+        <v>21.35302400759488</v>
       </c>
       <c r="G8">
-        <v>26.89114418497714</v>
+        <v>24.35312952386182</v>
       </c>
       <c r="H8">
-        <v>8.600139472543464</v>
+        <v>12.71193257300615</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.96249878514584</v>
+        <v>15.89794262882672</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.96004882140623</v>
+        <v>14.73438812377864</v>
       </c>
       <c r="C9">
-        <v>17.48312117798139</v>
+        <v>10.37658822698788</v>
       </c>
       <c r="D9">
-        <v>3.454264712869932</v>
+        <v>3.78536536425418</v>
       </c>
       <c r="F9">
-        <v>22.20308150711429</v>
+        <v>21.65528248750466</v>
       </c>
       <c r="G9">
-        <v>30.6617576523671</v>
+        <v>25.08189063131426</v>
       </c>
       <c r="H9">
-        <v>8.955736665599233</v>
+        <v>12.64368297292283</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.59090067897124</v>
+        <v>15.77612381791767</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.22494797184883</v>
+        <v>15.76948291294286</v>
       </c>
       <c r="C10">
-        <v>18.96714987192227</v>
+        <v>11.14713297558025</v>
       </c>
       <c r="D10">
-        <v>3.569025859727516</v>
+        <v>3.823662593337879</v>
       </c>
       <c r="F10">
-        <v>23.92806725298127</v>
+        <v>21.91856934449638</v>
       </c>
       <c r="G10">
-        <v>33.44929118837985</v>
+        <v>25.66891248120654</v>
       </c>
       <c r="H10">
-        <v>9.271711058498616</v>
+        <v>12.61103226318869</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.33814995765037</v>
+        <v>15.69612528397333</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.20435523702157</v>
+        <v>16.21961013938946</v>
       </c>
       <c r="C11">
-        <v>19.61004079621675</v>
+        <v>11.47898190254013</v>
       </c>
       <c r="D11">
-        <v>3.620286651536954</v>
+        <v>3.840967347453681</v>
       </c>
       <c r="F11">
-        <v>24.71285540115008</v>
+        <v>22.04688715757819</v>
       </c>
       <c r="G11">
-        <v>34.74895160460495</v>
+        <v>25.94577796014855</v>
       </c>
       <c r="H11">
-        <v>9.428008261395144</v>
+        <v>12.60001683653899</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.22787395051659</v>
+        <v>15.66178427081102</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.56804553542059</v>
+        <v>16.38698854826345</v>
       </c>
       <c r="C12">
-        <v>19.84891939631758</v>
+        <v>11.60194189244629</v>
       </c>
       <c r="D12">
-        <v>3.639553652351306</v>
+        <v>3.847500758481068</v>
       </c>
       <c r="F12">
-        <v>25.02865651618107</v>
+        <v>22.09666735895396</v>
       </c>
       <c r="G12">
-        <v>35.2388026310409</v>
+        <v>26.05191093372638</v>
       </c>
       <c r="H12">
-        <v>9.489048611831617</v>
+        <v>12.59640021963897</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.18682387215286</v>
+        <v>15.64907435995959</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.49003592733385</v>
+        <v>16.35107867036049</v>
       </c>
       <c r="C13">
-        <v>19.7976748034355</v>
+        <v>11.57558075827703</v>
       </c>
       <c r="D13">
-        <v>3.635410699190726</v>
+        <v>3.846094583014417</v>
       </c>
       <c r="F13">
-        <v>24.9547917847797</v>
+        <v>22.0858940901093</v>
       </c>
       <c r="G13">
-        <v>35.13340588255414</v>
+        <v>26.02899790481458</v>
       </c>
       <c r="H13">
-        <v>9.47581927664889</v>
+        <v>12.59715441085578</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.19563261785792</v>
+        <v>15.65179858754702</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.23441957628545</v>
+        <v>16.23344255966404</v>
       </c>
       <c r="C14">
-        <v>19.62978469319236</v>
+        <v>11.48915217420526</v>
       </c>
       <c r="D14">
-        <v>3.621874695913922</v>
+        <v>3.841505261933034</v>
       </c>
       <c r="F14">
-        <v>24.7373006685579</v>
+        <v>22.05095901523309</v>
       </c>
       <c r="G14">
-        <v>34.78929776147637</v>
+        <v>25.95448444166968</v>
       </c>
       <c r="H14">
-        <v>9.432992662227573</v>
+        <v>12.59970816331849</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.22448231568196</v>
+        <v>15.6607327242338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.0769148529455</v>
+        <v>16.16098413229188</v>
       </c>
       <c r="C15">
-        <v>19.52635394566549</v>
+        <v>11.43585957263271</v>
       </c>
       <c r="D15">
-        <v>3.61356447640771</v>
+        <v>3.838691547160188</v>
       </c>
       <c r="F15">
-        <v>24.60946612563425</v>
+        <v>22.02971387794115</v>
       </c>
       <c r="G15">
-        <v>34.57822334018014</v>
+        <v>25.90900710634255</v>
       </c>
       <c r="H15">
-        <v>9.407002962277456</v>
+        <v>12.60134472631871</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.24224700627791</v>
+        <v>15.66624344814544</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.15992797363204</v>
+        <v>15.73964037815549</v>
       </c>
       <c r="C16">
-        <v>18.92449237075918</v>
+        <v>11.12506836479734</v>
       </c>
       <c r="D16">
-        <v>3.565656078106477</v>
+        <v>3.822529102762755</v>
       </c>
       <c r="F16">
-        <v>23.87677295316157</v>
+        <v>21.91035211483518</v>
       </c>
       <c r="G16">
-        <v>33.36403103795067</v>
+        <v>25.65100594199647</v>
       </c>
       <c r="H16">
-        <v>9.261753541925865</v>
+        <v>12.61182961921649</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.34545405010918</v>
+        <v>15.69841076320405</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58443780744588</v>
+        <v>15.47577591946293</v>
       </c>
       <c r="C17">
-        <v>18.54706171902724</v>
+        <v>10.92960986061973</v>
       </c>
       <c r="D17">
-        <v>3.536017382698406</v>
+        <v>3.812582099010606</v>
       </c>
       <c r="F17">
-        <v>23.42723574905929</v>
+        <v>21.83928922144806</v>
       </c>
       <c r="G17">
-        <v>32.61503215399973</v>
+        <v>25.49516062907685</v>
       </c>
       <c r="H17">
-        <v>9.175899307470036</v>
+        <v>12.61924677466331</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.40999409797715</v>
+        <v>15.71866916708336</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.24863119649559</v>
+        <v>15.32206002604</v>
       </c>
       <c r="C18">
-        <v>18.32693836692836</v>
+        <v>10.81543017477071</v>
       </c>
       <c r="D18">
-        <v>3.518881498454648</v>
+        <v>3.806850009389489</v>
       </c>
       <c r="F18">
-        <v>23.16868336867643</v>
+        <v>21.79922284796908</v>
       </c>
       <c r="G18">
-        <v>32.20174502886736</v>
+        <v>25.40645498353555</v>
       </c>
       <c r="H18">
-        <v>9.127697671405489</v>
+        <v>12.62387398253777</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.44755606228998</v>
+        <v>15.73051432291391</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.13410463259881</v>
+        <v>15.26968297615286</v>
       </c>
       <c r="C19">
-        <v>18.25188542122732</v>
+        <v>10.77646975792064</v>
       </c>
       <c r="D19">
-        <v>3.513064666606467</v>
+        <v>3.804907444355812</v>
       </c>
       <c r="F19">
-        <v>23.08114697093648</v>
+        <v>21.7857968550802</v>
       </c>
       <c r="G19">
-        <v>32.06247945161009</v>
+        <v>25.3765846338085</v>
       </c>
       <c r="H19">
-        <v>9.111578494968215</v>
+        <v>12.62550259551732</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46034859643214</v>
+        <v>15.73455806599744</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.64619557179326</v>
+        <v>15.50406707681612</v>
       </c>
       <c r="C20">
-        <v>18.587553588225</v>
+        <v>10.95059875820282</v>
       </c>
       <c r="D20">
-        <v>3.539181697023394</v>
+        <v>3.813642115785223</v>
       </c>
       <c r="F20">
-        <v>23.47508952737496</v>
+        <v>21.84677073369107</v>
       </c>
       <c r="G20">
-        <v>32.69492139085612</v>
+        <v>25.51165500648562</v>
       </c>
       <c r="H20">
-        <v>9.184916214124497</v>
+        <v>12.61841981617371</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.40307791633055</v>
+        <v>15.71649264912238</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.30969434564735</v>
+        <v>16.2680792456169</v>
       </c>
       <c r="C21">
-        <v>19.67922158934659</v>
+        <v>11.51461185131255</v>
       </c>
       <c r="D21">
-        <v>3.625854526506004</v>
+        <v>3.842853808265721</v>
       </c>
       <c r="F21">
-        <v>24.79859797104899</v>
+        <v>22.06118835822755</v>
       </c>
       <c r="G21">
-        <v>34.89043269082536</v>
+        <v>25.97633683169136</v>
       </c>
       <c r="H21">
-        <v>9.445521186278857</v>
+        <v>12.59894298909567</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.21598892477269</v>
+        <v>15.65810056956697</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.35504531669322</v>
+        <v>16.74945016706784</v>
       </c>
       <c r="C22">
-        <v>20.36608651188299</v>
+        <v>11.86746098305125</v>
       </c>
       <c r="D22">
-        <v>3.681655939727384</v>
+        <v>3.861830287449507</v>
       </c>
       <c r="F22">
-        <v>25.77948534876841</v>
+        <v>22.20823256023286</v>
       </c>
       <c r="G22">
-        <v>36.31196836146163</v>
+        <v>26.28749426851204</v>
       </c>
       <c r="H22">
-        <v>9.626669592544397</v>
+        <v>12.58944799435576</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.09786801037241</v>
+        <v>15.62165303266458</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.80090491102994</v>
+        <v>16.49420269952031</v>
       </c>
       <c r="C23">
-        <v>20.00190525645159</v>
+        <v>11.68058614239797</v>
       </c>
       <c r="D23">
-        <v>3.651953365475872</v>
+        <v>3.851713605525726</v>
       </c>
       <c r="F23">
-        <v>25.24974642166116</v>
+        <v>22.12913406423433</v>
       </c>
       <c r="G23">
-        <v>35.55446734468991</v>
+        <v>26.12078211925893</v>
       </c>
       <c r="H23">
-        <v>9.528981000036211</v>
+        <v>12.59421885699313</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.16051894727046</v>
+        <v>15.64094903268493</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.61829031333187</v>
+        <v>15.49128291898255</v>
       </c>
       <c r="C24">
-        <v>18.56925697856366</v>
+        <v>10.94111530775031</v>
       </c>
       <c r="D24">
-        <v>3.537751409506452</v>
+        <v>3.813162923788398</v>
       </c>
       <c r="F24">
-        <v>23.45345516199635</v>
+        <v>21.84338588241669</v>
       </c>
       <c r="G24">
-        <v>32.65880879161946</v>
+        <v>25.50419511088615</v>
       </c>
       <c r="H24">
-        <v>9.180836070137719</v>
+        <v>12.61879255359475</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.40620330092207</v>
+        <v>15.71747603502675</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.08001810467124</v>
+        <v>14.33552692493228</v>
       </c>
       <c r="C25">
-        <v>16.90772173271891</v>
+        <v>10.07642338405769</v>
       </c>
       <c r="D25">
-        <v>3.411229346159935</v>
+        <v>3.771176451941348</v>
       </c>
       <c r="F25">
-        <v>21.5687497106454</v>
+        <v>21.56614866440894</v>
       </c>
       <c r="G25">
-        <v>29.64505353647694</v>
+        <v>24.87522337703711</v>
       </c>
       <c r="H25">
-        <v>8.85017244426775</v>
+        <v>12.6590887605638</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.68795901351763</v>
+        <v>15.80740668800622</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.4252224796261</v>
+        <v>22.04815376457392</v>
       </c>
       <c r="C2">
-        <v>9.38299382964138</v>
+        <v>15.5825629267734</v>
       </c>
       <c r="D2">
-        <v>3.740008472580512</v>
+        <v>3.315566151789576</v>
       </c>
       <c r="F2">
-        <v>21.38989080404852</v>
+        <v>20.18744577395051</v>
       </c>
       <c r="G2">
-        <v>24.44737171983198</v>
+        <v>27.41373946665433</v>
       </c>
       <c r="H2">
-        <v>12.70049582734677</v>
+        <v>8.643220981812444</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.88000812443902</v>
+        <v>10.90890244210684</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.77419563848321</v>
+        <v>20.56732741830053</v>
       </c>
       <c r="C3">
-        <v>8.878361777503271</v>
+        <v>14.62045749007202</v>
       </c>
       <c r="D3">
-        <v>3.718775219632284</v>
+        <v>3.249395231173087</v>
       </c>
       <c r="F3">
-        <v>21.28832621055277</v>
+        <v>19.25958900290986</v>
       </c>
       <c r="G3">
-        <v>24.1813638881743</v>
+        <v>25.89791077484747</v>
       </c>
       <c r="H3">
-        <v>12.73580959058132</v>
+        <v>8.524513368369417</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.93321286040914</v>
+        <v>11.06670936205814</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35888583854069</v>
+        <v>19.60622804022909</v>
       </c>
       <c r="C4">
-        <v>8.551748914040825</v>
+        <v>13.99809506146746</v>
       </c>
       <c r="D4">
-        <v>3.705699616513914</v>
+        <v>3.208191428417177</v>
       </c>
       <c r="F4">
-        <v>21.23491910154956</v>
+        <v>18.69581672166059</v>
       </c>
       <c r="G4">
-        <v>24.0304361432583</v>
+        <v>24.96831763652432</v>
       </c>
       <c r="H4">
-        <v>12.76104410354162</v>
+        <v>8.461774171350395</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.96786108781562</v>
+        <v>11.16749758459559</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.18594976194884</v>
+        <v>19.20144033641611</v>
       </c>
       <c r="C5">
-        <v>8.414501547623795</v>
+        <v>13.73653828582884</v>
       </c>
       <c r="D5">
-        <v>3.700364075237709</v>
+        <v>3.191270202189683</v>
       </c>
       <c r="F5">
-        <v>21.21542303914675</v>
+        <v>18.46788989479683</v>
       </c>
       <c r="G5">
-        <v>23.97213113720726</v>
+        <v>24.59032695241983</v>
       </c>
       <c r="H5">
-        <v>12.77221658185119</v>
+        <v>8.438680295531915</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.98247936321711</v>
+        <v>11.2095378564328</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.15701796004825</v>
+        <v>19.13343000063748</v>
       </c>
       <c r="C6">
-        <v>8.391463300995355</v>
+        <v>13.6926282474378</v>
       </c>
       <c r="D6">
-        <v>3.69947775503784</v>
+        <v>3.188453003263499</v>
       </c>
       <c r="F6">
-        <v>21.21232308832882</v>
+        <v>18.43016246806657</v>
       </c>
       <c r="G6">
-        <v>23.96264502736274</v>
+        <v>24.52762927477262</v>
       </c>
       <c r="H6">
-        <v>12.77412535119219</v>
+        <v>8.434992467513542</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.98493687174293</v>
+        <v>11.21657681118001</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35656819850367</v>
+        <v>19.6008222171481</v>
       </c>
       <c r="C7">
-        <v>8.549914653067617</v>
+        <v>13.99459972889145</v>
       </c>
       <c r="D7">
-        <v>3.705627685113847</v>
+        <v>3.207963731272732</v>
       </c>
       <c r="F7">
-        <v>21.23464697061064</v>
+        <v>18.69273502264057</v>
       </c>
       <c r="G7">
-        <v>24.02963676858449</v>
+        <v>24.96321579835999</v>
       </c>
       <c r="H7">
-        <v>12.76119118446527</v>
+        <v>8.461452816851745</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.96805621403706</v>
+        <v>11.16806064689891</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20410456575486</v>
+        <v>21.54827368722187</v>
       </c>
       <c r="C8">
-        <v>9.212512008141118</v>
+        <v>15.25739537228546</v>
       </c>
       <c r="D8">
-        <v>3.732696701174478</v>
+        <v>3.292877876707946</v>
       </c>
       <c r="F8">
-        <v>21.35302400759488</v>
+        <v>19.86647160564398</v>
       </c>
       <c r="G8">
-        <v>24.35312952386182</v>
+        <v>26.89114418497717</v>
       </c>
       <c r="H8">
-        <v>12.71193257300615</v>
+        <v>8.600139472543505</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.89794262882672</v>
+        <v>10.96249878514583</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.73438812377864</v>
+        <v>24.96004882140625</v>
       </c>
       <c r="C9">
-        <v>10.37658822698788</v>
+        <v>17.48312117798129</v>
       </c>
       <c r="D9">
-        <v>3.78536536425418</v>
+        <v>3.454264712869894</v>
       </c>
       <c r="F9">
-        <v>21.65528248750466</v>
+        <v>22.20308150711427</v>
       </c>
       <c r="G9">
-        <v>25.08189063131426</v>
+        <v>30.66175765236699</v>
       </c>
       <c r="H9">
-        <v>12.64368297292283</v>
+        <v>8.955736665599192</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.77612381791767</v>
+        <v>10.59090067897125</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.76948291294286</v>
+        <v>27.22494797184883</v>
       </c>
       <c r="C10">
-        <v>11.14713297558025</v>
+        <v>18.96714987192235</v>
       </c>
       <c r="D10">
-        <v>3.823662593337879</v>
+        <v>3.569025859727551</v>
       </c>
       <c r="F10">
-        <v>21.91856934449638</v>
+        <v>23.92806725298126</v>
       </c>
       <c r="G10">
-        <v>25.66891248120654</v>
+        <v>33.44929118837986</v>
       </c>
       <c r="H10">
-        <v>12.61103226318869</v>
+        <v>9.271711058498539</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.69612528397333</v>
+        <v>10.33814995765034</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21961013938946</v>
+        <v>28.20435523702167</v>
       </c>
       <c r="C11">
-        <v>11.47898190254013</v>
+        <v>19.6100407962168</v>
       </c>
       <c r="D11">
-        <v>3.840967347453681</v>
+        <v>3.620286651537087</v>
       </c>
       <c r="F11">
-        <v>22.04688715757819</v>
+        <v>24.71285540115009</v>
       </c>
       <c r="G11">
-        <v>25.94577796014855</v>
+        <v>34.74895160460512</v>
       </c>
       <c r="H11">
-        <v>12.60001683653899</v>
+        <v>9.428008261395071</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.66178427081102</v>
+        <v>10.22787395051647</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.38698854826345</v>
+        <v>28.56804553542055</v>
       </c>
       <c r="C12">
-        <v>11.60194189244629</v>
+        <v>19.84891939631764</v>
       </c>
       <c r="D12">
-        <v>3.847500758481068</v>
+        <v>3.639553652351318</v>
       </c>
       <c r="F12">
-        <v>22.09666735895396</v>
+        <v>25.02865651618109</v>
       </c>
       <c r="G12">
-        <v>26.05191093372638</v>
+        <v>35.23880263104093</v>
       </c>
       <c r="H12">
-        <v>12.59640021963897</v>
+        <v>9.48904861183161</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.64907435995959</v>
+        <v>10.18682387215282</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.35107867036049</v>
+        <v>28.49003592733382</v>
       </c>
       <c r="C13">
-        <v>11.57558075827703</v>
+        <v>19.79767480343551</v>
       </c>
       <c r="D13">
-        <v>3.846094583014417</v>
+        <v>3.635410699190883</v>
       </c>
       <c r="F13">
-        <v>22.0858940901093</v>
+        <v>24.95479178477974</v>
       </c>
       <c r="G13">
-        <v>26.02899790481458</v>
+        <v>35.13340588255414</v>
       </c>
       <c r="H13">
-        <v>12.59715441085578</v>
+        <v>9.475819276648886</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.65179858754702</v>
+        <v>10.19563261785791</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.23344255966404</v>
+        <v>28.23441957628551</v>
       </c>
       <c r="C14">
-        <v>11.48915217420526</v>
+        <v>19.62978469319238</v>
       </c>
       <c r="D14">
-        <v>3.841505261933034</v>
+        <v>3.621874695913986</v>
       </c>
       <c r="F14">
-        <v>22.05095901523309</v>
+        <v>24.73730066855791</v>
       </c>
       <c r="G14">
-        <v>25.95448444166968</v>
+        <v>34.7892977614764</v>
       </c>
       <c r="H14">
-        <v>12.59970816331849</v>
+        <v>9.432992662227571</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.6607327242338</v>
+        <v>10.22448231568196</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16098413229188</v>
+        <v>28.07691485294544</v>
       </c>
       <c r="C15">
-        <v>11.43585957263271</v>
+        <v>19.52635394566547</v>
       </c>
       <c r="D15">
-        <v>3.838691547160188</v>
+        <v>3.613564476407697</v>
       </c>
       <c r="F15">
-        <v>22.02971387794115</v>
+        <v>24.6094661256342</v>
       </c>
       <c r="G15">
-        <v>25.90900710634255</v>
+        <v>34.57822334018004</v>
       </c>
       <c r="H15">
-        <v>12.60134472631871</v>
+        <v>9.407002962277478</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.66624344814544</v>
+        <v>10.24224700627799</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73964037815549</v>
+        <v>27.15992797363205</v>
       </c>
       <c r="C16">
-        <v>11.12506836479734</v>
+        <v>18.92449237075917</v>
       </c>
       <c r="D16">
-        <v>3.822529102762755</v>
+        <v>3.565656078106542</v>
       </c>
       <c r="F16">
-        <v>21.91035211483518</v>
+        <v>23.87677295316158</v>
       </c>
       <c r="G16">
-        <v>25.65100594199647</v>
+        <v>33.36403103795067</v>
       </c>
       <c r="H16">
-        <v>12.61182961921649</v>
+        <v>9.261753541925872</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.69841076320405</v>
+        <v>10.34545405010918</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47577591946293</v>
+        <v>26.58443780744593</v>
       </c>
       <c r="C17">
-        <v>10.92960986061973</v>
+        <v>18.54706171902726</v>
       </c>
       <c r="D17">
-        <v>3.812582099010606</v>
+        <v>3.536017382698478</v>
       </c>
       <c r="F17">
-        <v>21.83928922144806</v>
+        <v>23.4272357490593</v>
       </c>
       <c r="G17">
-        <v>25.49516062907685</v>
+        <v>32.61503215399985</v>
       </c>
       <c r="H17">
-        <v>12.61924677466331</v>
+        <v>9.175899307470036</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.71866916708336</v>
+        <v>10.40999409797714</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32206002604</v>
+        <v>26.24863119649555</v>
       </c>
       <c r="C18">
-        <v>10.81543017477071</v>
+        <v>18.32693836692845</v>
       </c>
       <c r="D18">
-        <v>3.806850009389489</v>
+        <v>3.518881498454707</v>
       </c>
       <c r="F18">
-        <v>21.79922284796908</v>
+        <v>23.16868336867637</v>
       </c>
       <c r="G18">
-        <v>25.40645498353555</v>
+        <v>32.20174502886731</v>
       </c>
       <c r="H18">
-        <v>12.62387398253777</v>
+        <v>9.127697671405475</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.73051432291391</v>
+        <v>10.4475560622899</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.26968297615286</v>
+        <v>26.13410463259877</v>
       </c>
       <c r="C19">
-        <v>10.77646975792064</v>
+        <v>18.25188542122738</v>
       </c>
       <c r="D19">
-        <v>3.804907444355812</v>
+        <v>3.513064666606532</v>
       </c>
       <c r="F19">
-        <v>21.7857968550802</v>
+        <v>23.08114697093644</v>
       </c>
       <c r="G19">
-        <v>25.3765846338085</v>
+        <v>32.06247945161</v>
       </c>
       <c r="H19">
-        <v>12.62550259551732</v>
+        <v>9.111578494968201</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.73455806599744</v>
+        <v>10.46034859643218</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.50406707681612</v>
+        <v>26.6461955717932</v>
       </c>
       <c r="C20">
-        <v>10.95059875820282</v>
+        <v>18.58755358822518</v>
       </c>
       <c r="D20">
-        <v>3.813642115785223</v>
+        <v>3.5391816970234</v>
       </c>
       <c r="F20">
-        <v>21.84677073369107</v>
+        <v>23.47508952737488</v>
       </c>
       <c r="G20">
-        <v>25.51165500648562</v>
+        <v>32.69492139085602</v>
       </c>
       <c r="H20">
-        <v>12.61841981617371</v>
+        <v>9.184916214124497</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.71649264912238</v>
+        <v>10.40307791633063</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2680792456169</v>
+        <v>28.30969434564729</v>
       </c>
       <c r="C21">
-        <v>11.51461185131255</v>
+        <v>19.67922158934658</v>
       </c>
       <c r="D21">
-        <v>3.842853808265721</v>
+        <v>3.625854526506066</v>
       </c>
       <c r="F21">
-        <v>22.06118835822755</v>
+        <v>24.79859797104897</v>
       </c>
       <c r="G21">
-        <v>25.97633683169136</v>
+        <v>34.89043269082527</v>
       </c>
       <c r="H21">
-        <v>12.59894298909567</v>
+        <v>9.445521186278823</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.65810056956697</v>
+        <v>10.21598892477269</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.74945016706784</v>
+        <v>29.35504531669328</v>
       </c>
       <c r="C22">
-        <v>11.86746098305125</v>
+        <v>20.36608651188284</v>
       </c>
       <c r="D22">
-        <v>3.861830287449507</v>
+        <v>3.681655939727441</v>
       </c>
       <c r="F22">
-        <v>22.20823256023286</v>
+        <v>25.7794853487685</v>
       </c>
       <c r="G22">
-        <v>26.28749426851204</v>
+        <v>36.31196836146174</v>
       </c>
       <c r="H22">
-        <v>12.58944799435576</v>
+        <v>9.626669592544369</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.62165303266458</v>
+        <v>10.09786801037229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.49420269952031</v>
+        <v>28.80090491102998</v>
       </c>
       <c r="C23">
-        <v>11.68058614239797</v>
+        <v>20.00190525645154</v>
       </c>
       <c r="D23">
-        <v>3.851713605525726</v>
+        <v>3.651953365475916</v>
       </c>
       <c r="F23">
-        <v>22.12913406423433</v>
+        <v>25.24974642166119</v>
       </c>
       <c r="G23">
-        <v>26.12078211925893</v>
+        <v>35.55446734468993</v>
       </c>
       <c r="H23">
-        <v>12.59421885699313</v>
+        <v>9.528981000036218</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.64094903268493</v>
+        <v>10.16051894727046</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49128291898255</v>
+        <v>26.61829031333185</v>
       </c>
       <c r="C24">
-        <v>10.94111530775031</v>
+        <v>18.56925697856367</v>
       </c>
       <c r="D24">
-        <v>3.813162923788398</v>
+        <v>3.537751409506527</v>
       </c>
       <c r="F24">
-        <v>21.84338588241669</v>
+        <v>23.45345516199638</v>
       </c>
       <c r="G24">
-        <v>25.50419511088615</v>
+        <v>32.65880879161946</v>
       </c>
       <c r="H24">
-        <v>12.61879255359475</v>
+        <v>9.180836070137763</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.71747603502675</v>
+        <v>10.40620330092209</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33552692493228</v>
+        <v>24.0800181046712</v>
       </c>
       <c r="C25">
-        <v>10.07642338405769</v>
+        <v>16.90772173271904</v>
       </c>
       <c r="D25">
-        <v>3.771176451941348</v>
+        <v>3.411229346159973</v>
       </c>
       <c r="F25">
-        <v>21.56614866440894</v>
+        <v>21.56874971064535</v>
       </c>
       <c r="G25">
-        <v>24.87522337703711</v>
+        <v>29.64505353647686</v>
       </c>
       <c r="H25">
-        <v>12.6590887605638</v>
+        <v>8.850172444267745</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.80740668800622</v>
+        <v>10.68795901351764</v>
       </c>
       <c r="O25">
         <v>0</v>
